--- a/results/surv_models_multi.xlsx
+++ b/results/surv_models_multi.xlsx
@@ -1,125 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5119beb6994823d0/Utrecht/thesis/thesis_disclosed/results/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_827CFEC88F79A8D366075C52F37BD2724AC49CE7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5829DA1-4C0D-426C-857C-30FA0C585231}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>model</t>
-  </si>
-  <si>
-    <t>convergence</t>
-  </si>
-  <si>
-    <t>mean_trans</t>
-  </si>
-  <si>
-    <t>sd_trans</t>
-  </si>
-  <si>
-    <t>cilow_trans</t>
-  </si>
-  <si>
-    <t>cihigh_trans</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,23 +59,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -221,7 +109,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -253,27 +141,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -305,24 +175,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -498,536 +350,1233 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>convergence</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>pct25</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>pct75</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>sd</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>cilow</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>cihigh</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>mean_trans</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>sd_trans</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cilow_trans</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>cihigh_trans</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2">
-        <v>0.83774887162024247</v>
+        <v>0.6821789112138776</v>
       </c>
       <c r="D2">
-        <v>3.6764679103703369E-3</v>
+        <v>0.6769356096471895</v>
       </c>
       <c r="E2">
-        <v>0.83765138085299873</v>
+        <v>0.6810628732312105</v>
       </c>
       <c r="F2">
-        <v>0.837846309009881</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
+        <v>0.6833147071582948</v>
+      </c>
+      <c r="G2">
+        <v>0.685645173199966</v>
+      </c>
+      <c r="H2">
+        <v>0.001716846809289586</v>
+      </c>
+      <c r="I2">
+        <v>0.6818424092392569</v>
+      </c>
+      <c r="J2">
+        <v>0.6825154131884984</v>
+      </c>
+      <c r="K2">
+        <v>0.6821826263365004</v>
+      </c>
+      <c r="L2">
+        <v>0.003207108293748941</v>
+      </c>
+      <c r="M2">
+        <v>0.6818464182317548</v>
+      </c>
+      <c r="N2">
+        <v>0.6825185462214782</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="B3">
         <v>100</v>
       </c>
       <c r="C3">
-        <v>0.83198952887763922</v>
+        <v>0.6817187882976831</v>
       </c>
       <c r="D3">
-        <v>3.5871588977636659E-3</v>
+        <v>0.6770193425098227</v>
       </c>
       <c r="E3">
-        <v>0.83189133939117277</v>
+        <v>0.6808889097097491</v>
       </c>
       <c r="F3">
-        <v>0.83208766627006781</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
+        <v>0.6828229840396769</v>
+      </c>
+      <c r="G3">
+        <v>0.6852622552215475</v>
+      </c>
+      <c r="H3">
+        <v>0.001649070379431214</v>
+      </c>
+      <c r="I3">
+        <v>0.6813955705033146</v>
+      </c>
+      <c r="J3">
+        <v>0.6820420060920516</v>
+      </c>
+      <c r="K3">
+        <v>0.6817222114679612</v>
+      </c>
+      <c r="L3">
+        <v>0.003077889839940005</v>
+      </c>
+      <c r="M3">
+        <v>0.681399176378801</v>
+      </c>
+      <c r="N3">
+        <v>0.6820449809626505</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="B4">
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.83842208564288412</v>
+        <v>0.6821789112138776</v>
       </c>
       <c r="D4">
-        <v>3.9752978194423734E-3</v>
+        <v>0.6769356096471895</v>
       </c>
       <c r="E4">
-        <v>0.83831706714159959</v>
+        <v>0.6810628732312105</v>
       </c>
       <c r="F4">
-        <v>0.83852704192277638</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
+        <v>0.6833147071582948</v>
+      </c>
+      <c r="G4">
+        <v>0.685645173199966</v>
+      </c>
+      <c r="H4">
+        <v>0.001716846809289586</v>
+      </c>
+      <c r="I4">
+        <v>0.6818424092392569</v>
+      </c>
+      <c r="J4">
+        <v>0.6825154131884984</v>
+      </c>
+      <c r="K4">
+        <v>0.6821826263365004</v>
+      </c>
+      <c r="L4">
+        <v>0.003207108293748941</v>
+      </c>
+      <c r="M4">
+        <v>0.6818464182317548</v>
+      </c>
+      <c r="N4">
+        <v>0.6825185462214782</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="B5">
         <v>100</v>
       </c>
       <c r="C5">
-        <v>0.72604829229512213</v>
+        <v>0.713426540005039</v>
       </c>
       <c r="D5">
-        <v>8.5388581184593776E-3</v>
+        <v>0.7029395564198407</v>
       </c>
       <c r="E5">
-        <v>0.7256891102555727</v>
+        <v>0.7112101202114357</v>
       </c>
       <c r="F5">
-        <v>0.72640707858642195</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>10</v>
+        <v>0.7158758936931711</v>
+      </c>
+      <c r="G5">
+        <v>0.7222657519432734</v>
+      </c>
+      <c r="H5">
+        <v>0.003757904936699448</v>
+      </c>
+      <c r="I5">
+        <v>0.712689990637446</v>
+      </c>
+      <c r="J5">
+        <v>0.7141630893726321</v>
+      </c>
+      <c r="K5">
+        <v>0.713446828142614</v>
+      </c>
+      <c r="L5">
+        <v>0.007647678178583795</v>
+      </c>
+      <c r="M5">
+        <v>0.7127100540121145</v>
+      </c>
+      <c r="N5">
+        <v>0.7141820280887636</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="B6">
         <v>100</v>
       </c>
       <c r="C6">
-        <v>0.7320241219932917</v>
+        <v>0.7133379338618168</v>
       </c>
       <c r="D6">
-        <v>9.397120984725546E-3</v>
+        <v>0.7029164847862672</v>
       </c>
       <c r="E6">
-        <v>0.73163609604000035</v>
+        <v>0.7111054840350891</v>
       </c>
       <c r="F6">
-        <v>0.73241167359968462</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>11</v>
+        <v>0.7157634678842497</v>
+      </c>
+      <c r="G6">
+        <v>0.7221315059807503</v>
+      </c>
+      <c r="H6">
+        <v>0.003756205913658555</v>
+      </c>
+      <c r="I6">
+        <v>0.7126017175027397</v>
+      </c>
+      <c r="J6">
+        <v>0.7140741502208938</v>
+      </c>
+      <c r="K6">
+        <v>0.7133581967522534</v>
+      </c>
+      <c r="L6">
+        <v>0.007642439690089216</v>
+      </c>
+      <c r="M6">
+        <v>0.7126217383197716</v>
+      </c>
+      <c r="N6">
+        <v>0.7140930829467462</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="B7">
-        <v>99.176954732510296</v>
+        <v>100</v>
       </c>
       <c r="C7">
-        <v>0.73741329711137815</v>
+        <v>0.713283194948468</v>
       </c>
       <c r="D7">
-        <v>8.280170182247807E-3</v>
+        <v>0.7029370841876672</v>
       </c>
       <c r="E7">
-        <v>0.73707725109729771</v>
+        <v>0.7110060737715981</v>
       </c>
       <c r="F7">
-        <v>0.73774897846300236</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>12</v>
+        <v>0.7156672052227654</v>
+      </c>
+      <c r="G7">
+        <v>0.7220679356295748</v>
+      </c>
+      <c r="H7">
+        <v>0.003752031964777252</v>
+      </c>
+      <c r="I7">
+        <v>0.7125477966833716</v>
+      </c>
+      <c r="J7">
+        <v>0.7140185932135644</v>
+      </c>
+      <c r="K7">
+        <v>0.7133034089726914</v>
+      </c>
+      <c r="L7">
+        <v>0.007632940207291718</v>
+      </c>
+      <c r="M7">
+        <v>0.7125677499596484</v>
+      </c>
+      <c r="N7">
+        <v>0.714037499524887</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="B8">
         <v>100</v>
       </c>
       <c r="C8">
-        <v>0.47096235680502252</v>
+        <v>0.6222637091989293</v>
       </c>
       <c r="D8">
-        <v>9.2979856824554981E-4</v>
+        <v>0.6197808723630243</v>
       </c>
       <c r="E8">
-        <v>0.47089802407575848</v>
+        <v>0.6218077174736725</v>
       </c>
       <c r="F8">
-        <v>0.4710266845252038</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>13</v>
+        <v>0.6228148857255064</v>
+      </c>
+      <c r="G8">
+        <v>0.6245298198923163</v>
+      </c>
+      <c r="H8">
+        <v>0.0008689007209441736</v>
+      </c>
+      <c r="I8">
+        <v>0.6220934046576242</v>
+      </c>
+      <c r="J8">
+        <v>0.6224340137402343</v>
+      </c>
+      <c r="K8">
+        <v>0.6222644681177946</v>
+      </c>
+      <c r="L8">
+        <v>0.001417869615247134</v>
+      </c>
+      <c r="M8">
+        <v>0.6220941435676824</v>
+      </c>
+      <c r="N8">
+        <v>0.6224347337700081</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="B9">
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.47039031168083528</v>
+        <v>0.6325158342727424</v>
       </c>
       <c r="D9">
-        <v>9.1302794443407257E-4</v>
+        <v>0.6288160202812408</v>
       </c>
       <c r="E9">
-        <v>0.47032709564428599</v>
+        <v>0.6318641930787366</v>
       </c>
       <c r="F9">
-        <v>0.470453522889897</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>14</v>
+        <v>0.6331959655673189</v>
+      </c>
+      <c r="G9">
+        <v>0.6355775861447648</v>
+      </c>
+      <c r="H9">
+        <v>0.001026965273364713</v>
+      </c>
+      <c r="I9">
+        <v>0.6323145490791628</v>
+      </c>
+      <c r="J9">
+        <v>0.6327171194663219</v>
+      </c>
+      <c r="K9">
+        <v>0.6325169345367204</v>
+      </c>
+      <c r="L9">
+        <v>0.001711344261699029</v>
+      </c>
+      <c r="M9">
+        <v>0.6323156636139312</v>
+      </c>
+      <c r="N9">
+        <v>0.6327181200738532</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="B10">
         <v>100</v>
       </c>
       <c r="C10">
-        <v>0.4710560221760951</v>
+        <v>0.6373548042154856</v>
       </c>
       <c r="D10">
-        <v>9.1704650154001192E-4</v>
+        <v>0.6332476997241953</v>
       </c>
       <c r="E10">
-        <v>0.4709925789899887</v>
+        <v>0.6367079388559681</v>
       </c>
       <c r="F10">
-        <v>0.47111946048915798</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>15</v>
+        <v>0.6381113654101833</v>
+      </c>
+      <c r="G10">
+        <v>0.6404480337717833</v>
+      </c>
+      <c r="H10">
+        <v>0.001138573093811515</v>
+      </c>
+      <c r="I10">
+        <v>0.6371316438890986</v>
+      </c>
+      <c r="J10">
+        <v>0.6375779645418727</v>
+      </c>
+      <c r="K10">
+        <v>0.6373561808203537</v>
+      </c>
+      <c r="L10">
+        <v>0.001916768408396773</v>
+      </c>
+      <c r="M10">
+        <v>0.6371330530263232</v>
+      </c>
+      <c r="N10">
+        <v>0.6375792017856416</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="B11">
-        <v>99.794238683127574</v>
+        <v>98</v>
       </c>
       <c r="C11">
-        <v>0.83826561074078165</v>
+        <v>0.6833678433627891</v>
       </c>
       <c r="D11">
-        <v>3.7151969305091949E-3</v>
+        <v>0.6779472620328257</v>
       </c>
       <c r="E11">
-        <v>0.83816737881429726</v>
+        <v>0.6822718134179749</v>
       </c>
       <c r="F11">
-        <v>0.83836378828393165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>16</v>
+        <v>0.6845017933491193</v>
+      </c>
+      <c r="G11">
+        <v>0.6870350376368149</v>
+      </c>
+      <c r="H11">
+        <v>0.00175247680851093</v>
+      </c>
+      <c r="I11">
+        <v>0.6830243579083209</v>
+      </c>
+      <c r="J11">
+        <v>0.6837113288172573</v>
+      </c>
+      <c r="K11">
+        <v>0.6833717313561457</v>
+      </c>
+      <c r="L11">
+        <v>0.003283294015562553</v>
+      </c>
+      <c r="M11">
+        <v>0.6830285781236952</v>
+      </c>
+      <c r="N11">
+        <v>0.6837145829051369</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="B12">
         <v>100</v>
       </c>
       <c r="C12">
-        <v>0.83473619136823674</v>
+        <v>0.6912812470362737</v>
       </c>
       <c r="D12">
-        <v>6.5545279836581394E-3</v>
+        <v>0.6845082123364928</v>
       </c>
       <c r="E12">
-        <v>0.83455940522300454</v>
+        <v>0.6899775509946846</v>
       </c>
       <c r="F12">
-        <v>0.8349128056032139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>17</v>
+        <v>0.6928916844828145</v>
+      </c>
+      <c r="G12">
+        <v>0.6958126921929642</v>
+      </c>
+      <c r="H12">
+        <v>0.002292350058040191</v>
+      </c>
+      <c r="I12">
+        <v>0.6908319464248979</v>
+      </c>
+      <c r="J12">
+        <v>0.6917305476476495</v>
+      </c>
+      <c r="K12">
+        <v>0.6912881183106141</v>
+      </c>
+      <c r="L12">
+        <v>0.004384238590341612</v>
+      </c>
+      <c r="M12">
+        <v>0.6908391848945178</v>
+      </c>
+      <c r="N12">
+        <v>0.6917365186790528</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="B13">
-        <v>99.794238683127574</v>
+        <v>100</v>
       </c>
       <c r="C13">
-        <v>0.47101380393990361</v>
+        <v>0.6235805983565886</v>
       </c>
       <c r="D13">
-        <v>9.3005563513545188E-4</v>
+        <v>0.6212038203449102</v>
       </c>
       <c r="E13">
-        <v>0.47094945743063549</v>
+        <v>0.6229444416092547</v>
       </c>
       <c r="F13">
-        <v>0.47107814543708348</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>18</v>
+        <v>0.6241973378891257</v>
+      </c>
+      <c r="G13">
+        <v>0.6254146193839013</v>
+      </c>
+      <c r="H13">
+        <v>0.0008682641023607829</v>
+      </c>
+      <c r="I13">
+        <v>0.6234104185925259</v>
+      </c>
+      <c r="J13">
+        <v>0.6237507781206514</v>
+      </c>
+      <c r="K13">
+        <v>0.6235813596825626</v>
+      </c>
+      <c r="L13">
+        <v>0.001420509656063894</v>
+      </c>
+      <c r="M13">
+        <v>0.6234111747415937</v>
+      </c>
+      <c r="N13">
+        <v>0.6237514855395986</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="B14">
-        <v>99.794238683127574</v>
+        <v>77</v>
       </c>
       <c r="C14">
-        <v>0.83377553248733594</v>
+        <v>0.6913017956011428</v>
       </c>
       <c r="D14">
-        <v>5.3010102644828533E-3</v>
+        <v>0.6845089996775718</v>
       </c>
       <c r="E14">
-        <v>0.83363181406655651</v>
+        <v>0.6900756880889256</v>
       </c>
       <c r="F14">
-        <v>0.83391913800093309</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>19</v>
+        <v>0.6927041922391528</v>
+      </c>
+      <c r="G14">
+        <v>0.6958195503931102</v>
+      </c>
+      <c r="H14">
+        <v>0.002221341523073682</v>
+      </c>
+      <c r="I14">
+        <v>0.6908664126626204</v>
+      </c>
+      <c r="J14">
+        <v>0.6917371785396652</v>
+      </c>
+      <c r="K14">
+        <v>0.6913082296752266</v>
+      </c>
+      <c r="L14">
+        <v>0.004248985068951744</v>
+      </c>
+      <c r="M14">
+        <v>0.6908731771343463</v>
+      </c>
+      <c r="N14">
+        <v>0.6917427815626043</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
       <c r="B15">
-        <v>97.7366255144033</v>
+        <v>100</v>
       </c>
       <c r="C15">
-        <v>0.83235787233899527</v>
+        <v>0.6849625042945789</v>
       </c>
       <c r="D15">
-        <v>3.4857538477703542E-3</v>
+        <v>0.6795456235041538</v>
       </c>
       <c r="E15">
-        <v>0.83226264932946381</v>
+        <v>0.6839052044838956</v>
       </c>
       <c r="F15">
-        <v>0.83245304623440608</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>20</v>
+        <v>0.6860354939947184</v>
+      </c>
+      <c r="G15">
+        <v>0.6890580079149515</v>
+      </c>
+      <c r="H15">
+        <v>0.001794411821031407</v>
+      </c>
+      <c r="I15">
+        <v>0.6846107995776568</v>
+      </c>
+      <c r="J15">
+        <v>0.6853142090115011</v>
+      </c>
+      <c r="K15">
+        <v>0.6849666089765154</v>
+      </c>
+      <c r="L15">
+        <v>0.003376264872753377</v>
+      </c>
+      <c r="M15">
+        <v>0.6846151788769147</v>
+      </c>
+      <c r="N15">
+        <v>0.685317720630181</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
       <c r="B16">
         <v>100</v>
       </c>
       <c r="C16">
-        <v>0.84305842256802499</v>
+        <v>0.7046995597556728</v>
       </c>
       <c r="D16">
-        <v>4.7685768318919668E-3</v>
+        <v>0.697338599699125</v>
       </c>
       <c r="E16">
-        <v>0.84293574579064701</v>
+        <v>0.7032416889855724</v>
       </c>
       <c r="F16">
-        <v>0.84318101168069048</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>21</v>
+        <v>0.7062777492797973</v>
+      </c>
+      <c r="G16">
+        <v>0.7094572707730716</v>
+      </c>
+      <c r="H16">
+        <v>0.002385035920669759</v>
+      </c>
+      <c r="I16">
+        <v>0.7042320927152215</v>
+      </c>
+      <c r="J16">
+        <v>0.7051670267961241</v>
+      </c>
+      <c r="K16">
+        <v>0.7047074220297533</v>
+      </c>
+      <c r="L16">
+        <v>0.004730274320457918</v>
+      </c>
+      <c r="M16">
+        <v>0.7042404060495913</v>
+      </c>
+      <c r="N16">
+        <v>0.7051738281467033</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
       <c r="B17">
-        <v>99.794238683127574</v>
+        <v>100</v>
       </c>
       <c r="C17">
-        <v>0.47045497401643122</v>
+        <v>0.6348968269537916</v>
       </c>
       <c r="D17">
-        <v>9.1305329594127055E-4</v>
+        <v>0.6329320471908511</v>
       </c>
       <c r="E17">
-        <v>0.47039176116298759</v>
+        <v>0.6343287990222182</v>
       </c>
       <c r="F17">
-        <v>0.47051818204183271</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>22</v>
+        <v>0.6354520125349081</v>
+      </c>
+      <c r="G17">
+        <v>0.6371791263120536</v>
+      </c>
+      <c r="H17">
+        <v>0.0009327936007966707</v>
+      </c>
+      <c r="I17">
+        <v>0.6347139994080354</v>
+      </c>
+      <c r="J17">
+        <v>0.6350796544995477</v>
+      </c>
+      <c r="K17">
+        <v>0.6348977431110777</v>
+      </c>
+      <c r="L17">
+        <v>0.001562648935778939</v>
+      </c>
+      <c r="M17">
+        <v>0.6347148878740846</v>
+      </c>
+      <c r="N17">
+        <v>0.6350805272472572</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
       <c r="B18">
-        <v>94.444444444444443</v>
+        <v>97</v>
       </c>
       <c r="C18">
-        <v>0.84304502772348711</v>
+        <v>0.7049189639168977</v>
       </c>
       <c r="D18">
-        <v>4.833402285403951E-3</v>
+        <v>0.6974805521647807</v>
       </c>
       <c r="E18">
-        <v>0.8429206729031925</v>
+        <v>0.7035557644874881</v>
       </c>
       <c r="F18">
-        <v>0.84316929247374939</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>23</v>
+        <v>0.7064997814381683</v>
+      </c>
+      <c r="G18">
+        <v>0.7096277115021155</v>
+      </c>
+      <c r="H18">
+        <v>0.002419020897355573</v>
+      </c>
+      <c r="I18">
+        <v>0.704444835821016</v>
+      </c>
+      <c r="J18">
+        <v>0.7053930920127793</v>
+      </c>
+      <c r="K18">
+        <v>0.7049270548312714</v>
+      </c>
+      <c r="L18">
+        <v>0.004799921547450977</v>
+      </c>
+      <c r="M18">
+        <v>0.7044534493428436</v>
+      </c>
+      <c r="N18">
+        <v>0.7054000325557167</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
       <c r="B19">
-        <v>92.592592592592595</v>
+        <v>100</v>
       </c>
       <c r="C19">
-        <v>0.83912465832637095</v>
+        <v>0.6849456935534429</v>
       </c>
       <c r="D19">
-        <v>3.8340777591851808E-3</v>
+        <v>0.6791368557545525</v>
       </c>
       <c r="E19">
-        <v>0.83902377349841517</v>
+        <v>0.6837518446395543</v>
       </c>
       <c r="F19">
-        <v>0.83922548545654818</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>24</v>
+        <v>0.6862240240564177</v>
+      </c>
+      <c r="G19">
+        <v>0.6886800762098655</v>
+      </c>
+      <c r="H19">
+        <v>0.001857808476234107</v>
+      </c>
+      <c r="I19">
+        <v>0.6845815630921011</v>
+      </c>
+      <c r="J19">
+        <v>0.6853098240147848</v>
+      </c>
+      <c r="K19">
+        <v>0.6849500914591841</v>
+      </c>
+      <c r="L19">
+        <v>0.003494637349742964</v>
+      </c>
+      <c r="M19">
+        <v>0.6845863187743607</v>
+      </c>
+      <c r="N19">
+        <v>0.6853135229705867</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
       </c>
       <c r="B20">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="C20">
-        <v>0.8459237880181425</v>
+        <v>0.7059758226590142</v>
       </c>
       <c r="D20">
-        <v>4.698961587216062E-3</v>
+        <v>0.6987203761611922</v>
       </c>
       <c r="E20">
-        <v>0.84580492524145001</v>
+        <v>0.7044673474496808</v>
       </c>
       <c r="F20">
-        <v>0.84604256681081624</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>25</v>
+        <v>0.7074798536379785</v>
+      </c>
+      <c r="G20">
+        <v>0.7109800069414705</v>
+      </c>
+      <c r="H20">
+        <v>0.002442771348590943</v>
+      </c>
+      <c r="I20">
+        <v>0.7054970394746903</v>
+      </c>
+      <c r="J20">
+        <v>0.706454605843338</v>
+      </c>
+      <c r="K20">
+        <v>0.705984099271192</v>
+      </c>
+      <c r="L20">
+        <v>0.00486273957216765</v>
+      </c>
+      <c r="M20">
+        <v>0.7055057132328727</v>
+      </c>
+      <c r="N20">
+        <v>0.7064618419530638</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
       <c r="B21">
-        <v>98.76543209876543</v>
+        <v>100</v>
       </c>
       <c r="C21">
-        <v>0.47113210105557413</v>
+        <v>0.6405898657914496</v>
       </c>
       <c r="D21">
-        <v>9.1891882341603665E-4</v>
+        <v>0.6381219902641367</v>
       </c>
       <c r="E21">
-        <v>0.47106853418932931</v>
+        <v>0.6398764748876116</v>
       </c>
       <c r="F21">
-        <v>0.47119566302851729</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>26</v>
+        <v>0.6412700889696602</v>
+      </c>
+      <c r="G21">
+        <v>0.642742218724297</v>
+      </c>
+      <c r="H21">
+        <v>0.001034485463078039</v>
+      </c>
+      <c r="I21">
+        <v>0.6403871066406863</v>
+      </c>
+      <c r="J21">
+        <v>0.6407926249422129</v>
+      </c>
+      <c r="K21">
+        <v>0.6405910163467654</v>
+      </c>
+      <c r="L21">
+        <v>0.001754052090937934</v>
+      </c>
+      <c r="M21">
+        <v>0.6403882555917522</v>
+      </c>
+      <c r="N21">
+        <v>0.6407936878127515</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
       </c>
       <c r="B22">
-        <v>90.946502057613159</v>
+        <v>87</v>
       </c>
       <c r="C22">
-        <v>0.84599172897116925</v>
+        <v>0.7064316753748705</v>
       </c>
       <c r="D22">
-        <v>4.6213903107073457E-3</v>
+        <v>0.6989847603689142</v>
       </c>
       <c r="E22">
-        <v>0.84587487635592074</v>
+        <v>0.705009019759685</v>
       </c>
       <c r="F22">
-        <v>0.84610850037870688</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>27</v>
+        <v>0.7081706012299838</v>
+      </c>
+      <c r="G22">
+        <v>0.7113950561748501</v>
+      </c>
+      <c r="H22">
+        <v>0.002437178456130009</v>
+      </c>
+      <c r="I22">
+        <v>0.705953988397469</v>
+      </c>
+      <c r="J22">
+        <v>0.706909362352272</v>
+      </c>
+      <c r="K22">
+        <v>0.7064399298885926</v>
+      </c>
+      <c r="L22">
+        <v>0.00485615012248241</v>
+      </c>
+      <c r="M22">
+        <v>0.7059628055588473</v>
+      </c>
+      <c r="N22">
+        <v>0.7069164130141732</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="B23">
-        <v>94.032921810699591</v>
+        <v>100</v>
       </c>
       <c r="C23">
-        <v>0.83791169192307091</v>
+        <v>0.6834848251118576</v>
       </c>
       <c r="D23">
-        <v>3.680721179827142E-3</v>
+        <v>0.6780100995288361</v>
       </c>
       <c r="E23">
-        <v>0.83781417763978694</v>
+        <v>0.6823708816739168</v>
       </c>
       <c r="F23">
-        <v>0.83800915274373788</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>28</v>
+        <v>0.6846244020945011</v>
+      </c>
+      <c r="G23">
+        <v>0.6871851671825748</v>
+      </c>
+      <c r="H23">
+        <v>0.00175642756116773</v>
+      </c>
+      <c r="I23">
+        <v>0.6831405653098688</v>
+      </c>
+      <c r="J23">
+        <v>0.6838290849138464</v>
+      </c>
+      <c r="K23">
+        <v>0.6834887332997265</v>
+      </c>
+      <c r="L23">
+        <v>0.003291681836284945</v>
+      </c>
+      <c r="M23">
+        <v>0.6831448062209107</v>
+      </c>
+      <c r="N23">
+        <v>0.6838323571907645</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
       </c>
       <c r="B24">
         <v>100</v>
       </c>
       <c r="C24">
-        <v>0.84015008571181171</v>
+        <v>0.7091650676281192</v>
       </c>
       <c r="D24">
-        <v>5.8264858309809283E-3</v>
+        <v>0.7016027508797096</v>
       </c>
       <c r="E24">
-        <v>0.83999764386035947</v>
+        <v>0.7076148009192221</v>
       </c>
       <c r="F24">
-        <v>0.84030239493025516</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>29</v>
+        <v>0.7108068454929508</v>
+      </c>
+      <c r="G24">
+        <v>0.7141279926652273</v>
+      </c>
+      <c r="H24">
+        <v>0.002475612769943598</v>
+      </c>
+      <c r="I24">
+        <v>0.7086798475252102</v>
+      </c>
+      <c r="J24">
+        <v>0.7096502877310281</v>
+      </c>
+      <c r="K24">
+        <v>0.7091737012306101</v>
+      </c>
+      <c r="L24">
+        <v>0.004972540116797528</v>
+      </c>
+      <c r="M24">
+        <v>0.708688906416084</v>
+      </c>
+      <c r="N24">
+        <v>0.7096578263481863</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
       </c>
       <c r="B25">
-        <v>89.300411522633752</v>
+        <v>100</v>
       </c>
       <c r="C25">
-        <v>0.47101933782516919</v>
+        <v>0.6237910511992026</v>
       </c>
       <c r="D25">
-        <v>9.2768940317404177E-4</v>
+        <v>0.6214793668702246</v>
       </c>
       <c r="E25">
-        <v>0.47095515546162142</v>
+        <v>0.6231696101869761</v>
       </c>
       <c r="F25">
-        <v>0.47108351520207459</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>30</v>
+        <v>0.6244589723335475</v>
+      </c>
+      <c r="G25">
+        <v>0.625639922320532</v>
+      </c>
+      <c r="H25">
+        <v>0.0008728408863110131</v>
+      </c>
+      <c r="I25">
+        <v>0.6236199743854857</v>
+      </c>
+      <c r="J25">
+        <v>0.6239621280129196</v>
+      </c>
+      <c r="K25">
+        <v>0.6237918211872487</v>
+      </c>
+      <c r="L25">
+        <v>0.001428635297047038</v>
+      </c>
+      <c r="M25">
+        <v>0.6236207360909262</v>
+      </c>
+      <c r="N25">
+        <v>0.623962846527267</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
       </c>
       <c r="B26">
-        <v>86.419753086419746</v>
+        <v>66</v>
       </c>
       <c r="C26">
-        <v>0.8395120213229762</v>
+        <v>0.7088846256341875</v>
       </c>
       <c r="D26">
-        <v>4.6908834668161247E-3</v>
+        <v>0.7016498321924809</v>
       </c>
       <c r="E26">
-        <v>0.83938885472026137</v>
+        <v>0.7072338263652242</v>
       </c>
       <c r="F26">
-        <v>0.83963510170855593</v>
+        <v>0.7106616220727369</v>
+      </c>
+      <c r="G26">
+        <v>0.7141601235995071</v>
+      </c>
+      <c r="H26">
+        <v>0.002627697130959341</v>
+      </c>
+      <c r="I26">
+        <v>0.7083695969965195</v>
+      </c>
+      <c r="J26">
+        <v>0.7093996542718556</v>
+      </c>
+      <c r="K26">
+        <v>0.7088942888361444</v>
+      </c>
+      <c r="L26">
+        <v>0.005273280374651372</v>
+      </c>
+      <c r="M26">
+        <v>0.7083797418357274</v>
+      </c>
+      <c r="N26">
+        <v>0.7094080823782273</v>
       </c>
     </row>
   </sheetData>
